--- a/powerapp/data/incomer_dp.xlsx
+++ b/powerapp/data/incomer_dp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F38B96-E131-4CDC-8460-928B9767B0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2855E2FF-89BA-475F-AE43-4268A27E311C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="-21600" windowWidth="19380" windowHeight="10530" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="-10920" yWindow="-16020" windowWidth="17810" windowHeight="15370" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ls_incomer_dp" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="588">
   <si>
     <t>kV</t>
   </si>
@@ -1800,6 +1800,9 @@
   </si>
   <si>
     <t>132/22</t>
+  </si>
+  <si>
+    <t>bcvs_11</t>
   </si>
 </sst>
 </file>
@@ -2216,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <dimension ref="A1:E653"/>
+  <dimension ref="A1:E655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J656" sqref="J656"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5753,248 +5756,248 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>363</v>
+        <v>587</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>64</v>
+        <v>585</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E208" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
-        <v>363</v>
+        <v>587</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>195</v>
+        <v>585</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E209" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E210" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E211" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>448</v>
+        <v>364</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E212" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
-        <v>448</v>
+        <v>364</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E213" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E214" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E215" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>230</v>
+        <v>449</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E216" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>230</v>
+        <v>449</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E217" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E218" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E219" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="14.5" customHeight="1">
+        <v>197</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E220" s="2">
+      <c r="D220" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E220" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="14.5" customHeight="1">
+    <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E221" s="2">
+      <c r="D221" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E221" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="14.5" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>585</v>
@@ -6008,10 +6011,10 @@
     </row>
     <row r="223" spans="1:5" ht="14.5" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>585</v>
@@ -6025,146 +6028,146 @@
     </row>
     <row r="224" spans="1:5" ht="14.5" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E224" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="14.5" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E225" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="14.5" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E226" s="2">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="14.5" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E227" s="2">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="14.5" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E228" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="14.5" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E229" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="14.5" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E230" s="2">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="14.5" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E231" s="2">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="14.5" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>585</v>
@@ -6178,10 +6181,10 @@
     </row>
     <row r="233" spans="1:5" ht="14.5" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>585</v>
@@ -6195,78 +6198,78 @@
     </row>
     <row r="234" spans="1:5" ht="14.5" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E234" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="14.5" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E235" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="14.5" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E236" s="2">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="14.5" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E237" s="2">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="14.5" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>585</v>
@@ -6280,10 +6283,10 @@
     </row>
     <row r="239" spans="1:5" ht="14.5" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>585</v>
@@ -6295,46 +6298,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" ht="14.5" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>168</v>
+        <v>461</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E240" s="1">
+      <c r="D240" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E240" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="14.5" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>168</v>
+        <v>461</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D241" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E241" s="1">
+      <c r="D241" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E241" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>585</v>
@@ -6348,10 +6351,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>585</v>
@@ -6365,10 +6368,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>585</v>
@@ -6382,10 +6385,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>585</v>
@@ -6397,12 +6400,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="7" customFormat="1">
+    <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>585</v>
@@ -6414,12 +6417,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:5" s="7" customFormat="1">
+    <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>585</v>
@@ -6433,141 +6436,141 @@
     </row>
     <row r="248" spans="1:5" s="7" customFormat="1">
       <c r="A248" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E248" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="7" customFormat="1">
       <c r="A249" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E249" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="7" customFormat="1">
       <c r="A250" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E250" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="7" customFormat="1">
       <c r="A251" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E251" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="252" spans="1:5" s="7" customFormat="1">
       <c r="A252" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E252" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="253" spans="1:5" s="7" customFormat="1">
       <c r="A253" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E253" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:5" s="7" customFormat="1">
       <c r="A254" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="255" spans="1:5" s="7" customFormat="1">
       <c r="A255" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" s="7" customFormat="1">
       <c r="A256" s="2" t="s">
         <v>369</v>
       </c>
@@ -6578,222 +6581,222 @@
         <v>584</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" s="7" customFormat="1">
       <c r="A257" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E259" s="5">
-        <v>31</v>
+      <c r="E259" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E260" s="5">
-        <v>32</v>
+      <c r="E260" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E261" s="1" t="s">
-        <v>200</v>
+      <c r="E261" s="5">
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>201</v>
+      <c r="E262" s="5">
+        <v>32</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>586</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E263" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" s="7" customFormat="1">
+        <v>198</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>586</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E264" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" s="7" customFormat="1">
+        <v>199</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>586</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>226</v>
+      </c>
+      <c r="E265" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" s="7" customFormat="1">
       <c r="A266" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>586</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>241</v>
+      </c>
+      <c r="E266" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" s="7" customFormat="1">
       <c r="A267" s="2" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E267" s="5">
-        <v>31</v>
+      <c r="E267" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E268" s="5">
-        <v>32</v>
+      <c r="E268" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>585</v>
@@ -6807,10 +6810,10 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>585</v>
@@ -6824,10 +6827,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>585</v>
@@ -6835,16 +6838,16 @@
       <c r="D271" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E271" s="1">
+      <c r="E271" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>585</v>
@@ -6852,76 +6855,76 @@
       <c r="D272" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E272" s="1">
+      <c r="E272" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E273" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E274" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
-        <v>375</v>
+        <v>468</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>375</v>
+        <v>468</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6935,52 +6938,52 @@
         <v>584</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D278" s="6" t="s">
-        <v>198</v>
+      <c r="D278" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D279" s="6" t="s">
-        <v>199</v>
+      <c r="D279" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
-        <v>583</v>
+        <v>376</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>582</v>
+        <v>93</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>584</v>
@@ -6994,10 +6997,10 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
-        <v>583</v>
+        <v>376</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>582</v>
+        <v>93</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>584</v>
@@ -7011,49 +7014,49 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
-        <v>377</v>
+        <v>583</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>94</v>
+        <v>582</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>196</v>
+      <c r="D282" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
-        <v>377</v>
+        <v>583</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>94</v>
+        <v>582</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D283" s="4" t="s">
-        <v>197</v>
+      <c r="D283" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D284" s="6" t="s">
+      <c r="D284" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E284" s="1" t="s">
@@ -7062,15 +7065,15 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D285" s="6" t="s">
+      <c r="D285" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E285" s="1" t="s">
@@ -7079,49 +7082,49 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E286" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E287" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D288" s="4" t="s">
+      <c r="D288" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E288" s="1">
@@ -7130,15 +7133,15 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D289" s="4" t="s">
+      <c r="D289" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E289" s="1">
@@ -7156,57 +7159,57 @@
         <v>585</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E290" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E291" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E292" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B293" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" s="7" customFormat="1">
-      <c r="A292" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" s="7" customFormat="1">
-      <c r="A293" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C293" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D293" s="4" t="s">
+      <c r="D293" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E293" s="1" t="s">
@@ -7215,15 +7218,15 @@
     </row>
     <row r="294" spans="1:5" s="7" customFormat="1">
       <c r="A294" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D294" s="4" t="s">
+      <c r="D294" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E294" s="1" t="s">
@@ -7232,10 +7235,10 @@
     </row>
     <row r="295" spans="1:5" s="7" customFormat="1">
       <c r="A295" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>584</v>
@@ -7249,10 +7252,10 @@
     </row>
     <row r="296" spans="1:5" s="7" customFormat="1">
       <c r="A296" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>584</v>
@@ -7266,10 +7269,10 @@
     </row>
     <row r="297" spans="1:5" s="7" customFormat="1">
       <c r="A297" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>584</v>
@@ -7281,12 +7284,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" s="7" customFormat="1">
       <c r="A298" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>584</v>
@@ -7298,46 +7301,46 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" s="7" customFormat="1">
       <c r="A299" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E299" s="1">
-        <v>31</v>
+      <c r="E299" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E300" s="1">
-        <v>32</v>
+      <c r="E300" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>585</v>
@@ -7351,10 +7354,10 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>585</v>
@@ -7368,10 +7371,10 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>585</v>
@@ -7385,10 +7388,10 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>585</v>
@@ -7402,49 +7405,49 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E305" s="1" t="s">
-        <v>200</v>
+      <c r="E305" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E306" s="1" t="s">
-        <v>201</v>
+      <c r="E306" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D307" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D307" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E307" s="1" t="s">
@@ -7453,15 +7456,15 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D308" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D308" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E308" s="1" t="s">
@@ -7470,10 +7473,10 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>584</v>
@@ -7481,16 +7484,16 @@
       <c r="D309" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E309" s="1">
-        <v>31</v>
+      <c r="E309" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>584</v>
@@ -7498,144 +7501,144 @@
       <c r="D310" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E310" s="1">
-        <v>32</v>
+      <c r="E310" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D311" s="4" t="s">
-        <v>196</v>
+        <v>584</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="E311" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D312" s="4" t="s">
-        <v>197</v>
+        <v>584</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="E312" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E313" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E314" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E315" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E316" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7649,10 +7652,10 @@
         <v>584</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7666,44 +7669,44 @@
         <v>584</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7717,86 +7720,86 @@
         <v>584</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" s="7" customFormat="1">
-      <c r="A327" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D327" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" s="7" customFormat="1">
-      <c r="A328" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>584</v>
@@ -7808,12 +7811,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" s="7" customFormat="1">
       <c r="A329" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>584</v>
@@ -7825,12 +7828,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" s="7" customFormat="1">
       <c r="A330" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>584</v>
@@ -7844,10 +7847,10 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>584</v>
@@ -7861,10 +7864,10 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
-        <v>469</v>
+        <v>399</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>584</v>
@@ -7878,10 +7881,10 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>469</v>
+        <v>399</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>584</v>
@@ -7895,10 +7898,10 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>584</v>
@@ -7912,10 +7915,10 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>584</v>
@@ -7938,52 +7941,52 @@
         <v>584</v>
       </c>
       <c r="D336" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D338" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E336" s="1" t="s">
+      <c r="E338" s="1" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A337" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D337" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E337" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A338" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E338" s="5">
-        <v>32</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.5" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>585</v>
@@ -7997,10 +8000,10 @@
     </row>
     <row r="340" spans="1:5" ht="14.5" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>585</v>
@@ -8014,95 +8017,95 @@
     </row>
     <row r="341" spans="1:5" ht="14.5" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E341" s="5" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E341" s="5">
+        <v>31</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.5" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E342" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E342" s="5">
+        <v>32</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.5" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E343" s="5">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.5" customHeight="1">
       <c r="A344" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="14.5" customHeight="1">
+      <c r="A345" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C344" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E344" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C345" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E345" s="1">
+      <c r="E345" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" ht="14.5" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>585</v>
@@ -8110,16 +8113,16 @@
       <c r="D346" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E346" s="1">
+      <c r="E346" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>585</v>
@@ -8133,10 +8136,10 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>585</v>
@@ -8150,10 +8153,10 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>585</v>
@@ -8167,10 +8170,10 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>585</v>
@@ -8184,206 +8187,206 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E351" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E352" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E353" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E354" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E355" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D356" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E356" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D358" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E356" s="1" t="s">
+      <c r="E358" s="1" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" s="7" customFormat="1">
-      <c r="A357" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D357" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E357" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" s="7" customFormat="1">
-      <c r="A358" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D358" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E358" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="359" spans="1:5" s="7" customFormat="1">
       <c r="A359" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E359" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="360" spans="1:5" s="7" customFormat="1">
       <c r="A360" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E360" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="361" spans="1:5" s="7" customFormat="1">
       <c r="A361" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E361" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="362" spans="1:5" s="7" customFormat="1">
       <c r="A362" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E362" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="363" spans="1:5" s="7" customFormat="1">
@@ -8397,10 +8400,10 @@
         <v>585</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E363" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="364" spans="1:5" s="7" customFormat="1">
@@ -8414,112 +8417,112 @@
         <v>585</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E364" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="365" spans="1:5" s="7" customFormat="1">
       <c r="A365" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E365" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="366" spans="1:5" s="7" customFormat="1">
       <c r="A366" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E366" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="367" spans="1:5" s="7" customFormat="1">
       <c r="A367" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E367" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="368" spans="1:5" s="7" customFormat="1">
       <c r="A368" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E368" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="369" spans="1:5" s="7" customFormat="1">
       <c r="A369" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="370" spans="1:5" s="7" customFormat="1">
       <c r="A370" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="371" spans="1:5" s="7" customFormat="1">
@@ -8533,52 +8536,52 @@
         <v>584</v>
       </c>
       <c r="D371" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" s="7" customFormat="1">
+      <c r="A372" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" s="7" customFormat="1">
+      <c r="A373" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D373" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E371" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D372" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E372" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D373" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E373" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>585</v>
@@ -8592,10 +8595,10 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>585</v>
@@ -8609,146 +8612,146 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E376" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E377" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E378" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E379" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E380" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E381" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>584</v>
@@ -8762,10 +8765,10 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>584</v>
@@ -8779,10 +8782,10 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>584</v>
@@ -8796,10 +8799,10 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>584</v>
@@ -8813,15 +8816,15 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D388" s="6" t="s">
+      <c r="D388" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E388" s="1" t="s">
@@ -8830,15 +8833,15 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D389" s="6" t="s">
+      <c r="D389" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E389" s="1" t="s">
@@ -8847,15 +8850,15 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D390" s="4" t="s">
+      <c r="D390" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E390" s="1" t="s">
@@ -8864,15 +8867,15 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D391" s="4" t="s">
+      <c r="D391" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E391" s="1" t="s">
@@ -8881,13 +8884,13 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>198</v>
@@ -8898,13 +8901,13 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>199</v>
@@ -8924,52 +8927,52 @@
         <v>586</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
-        <v>493</v>
+        <v>404</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E395" s="1">
-        <v>31</v>
+        <v>199</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
-        <v>493</v>
+        <v>404</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E396" s="1">
-        <v>32</v>
+        <v>196</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>585</v>
@@ -8983,10 +8986,10 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>585</v>
@@ -9000,10 +9003,10 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>585</v>
@@ -9017,16 +9020,16 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="E400" s="1">
         <v>32</v>
@@ -9034,70 +9037,70 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E401" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E401" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>195</v>
+        <v>258</v>
+      </c>
+      <c r="E402" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9111,52 +9114,52 @@
         <v>584</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E406" s="1">
-        <v>31</v>
+        <v>199</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E407" s="1">
-        <v>32</v>
+        <v>204</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>585</v>
@@ -9170,10 +9173,10 @@
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>585</v>
@@ -9187,104 +9190,104 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E410" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E411" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E411" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
-        <v>409</v>
+        <v>497</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
-        <v>409</v>
+        <v>497</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -9298,44 +9301,44 @@
         <v>584</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -9349,78 +9352,78 @@
         <v>584</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" s="7" customFormat="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
       <c r="A421" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E422" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+      <c r="E422" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" s="7" customFormat="1">
       <c r="A423" s="2" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E423" s="1">
-        <v>32</v>
+      <c r="E423" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -9434,7 +9437,7 @@
         <v>585</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="E424" s="1">
         <v>31</v>
@@ -9442,44 +9445,44 @@
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E425" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="E426" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>585</v>
@@ -9493,10 +9496,10 @@
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>585</v>
@@ -9508,117 +9511,117 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:5" s="7" customFormat="1">
+    <row r="429" spans="1:5">
       <c r="A429" s="2" t="s">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E429" s="1" t="s">
-        <v>200</v>
+      <c r="E429" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E430" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" s="7" customFormat="1">
+      <c r="A431" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B431" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C430" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D430" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="A431" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="C431" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E431" s="1">
-        <v>31</v>
+      <c r="E431" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="2" t="s">
-        <v>501</v>
+        <v>412</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E432" s="1">
-        <v>32</v>
+      <c r="E432" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E433" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E434" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>196</v>
@@ -9629,13 +9632,13 @@
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>197</v>
@@ -9646,70 +9649,70 @@
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E437" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E438" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E439" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E440" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -9723,10 +9726,10 @@
         <v>584</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -9740,222 +9743,222 @@
         <v>584</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E443" s="1">
-        <v>31</v>
+        <v>206</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E444" s="1">
-        <v>32</v>
+        <v>217</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E445" s="1" t="s">
-        <v>200</v>
+      <c r="E445" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E446" s="1" t="s">
-        <v>201</v>
+      <c r="E446" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E447" s="4">
-        <v>31</v>
+      <c r="E447" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E448" s="4">
-        <v>32</v>
+      <c r="E448" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E449" s="4" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E449" s="4">
+        <v>31</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E450" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E450" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E451" s="4">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E451" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E452" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E452" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="2" t="s">
-        <v>413</v>
+        <v>510</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E453" s="1" t="s">
-        <v>200</v>
+      <c r="E453" s="4">
+        <v>31</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D454" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E454" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C454" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D454" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" s="7" customFormat="1">
-      <c r="A455" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>584</v>
@@ -9967,12 +9970,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="7" customFormat="1">
+    <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>584</v>
@@ -9986,13 +9989,13 @@
     </row>
     <row r="457" spans="1:5" s="7" customFormat="1">
       <c r="A457" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>198</v>
@@ -10003,13 +10006,13 @@
     </row>
     <row r="458" spans="1:5" s="7" customFormat="1">
       <c r="A458" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>199</v>
@@ -10020,146 +10023,146 @@
     </row>
     <row r="459" spans="1:5" s="7" customFormat="1">
       <c r="A459" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="460" spans="1:5" s="7" customFormat="1">
       <c r="A460" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="461" spans="1:5" s="7" customFormat="1">
       <c r="A461" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E461" s="1">
-        <v>31</v>
+      <c r="E461" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="462" spans="1:5" s="7" customFormat="1">
       <c r="A462" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E462" s="1">
-        <v>32</v>
+      <c r="E462" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="463" spans="1:5" s="7" customFormat="1">
       <c r="A463" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E463" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="E463" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="464" spans="1:5" s="7" customFormat="1">
       <c r="A464" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D464" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E464" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" s="7" customFormat="1">
+      <c r="A465" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="B465" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C464" s="4" t="s">
+      <c r="C465" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D464" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E464" s="1" t="s">
+      <c r="D465" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" s="7" customFormat="1">
+      <c r="A466" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D466" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E466" s="1" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
-      <c r="A465" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C465" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D465" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E465" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
-      <c r="A466" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C466" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D466" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E466" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="2" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>273</v>
+        <v>127</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>585</v>
@@ -10173,10 +10176,10 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>273</v>
+        <v>127</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>585</v>
@@ -10199,10 +10202,10 @@
         <v>585</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E469" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -10216,52 +10219,52 @@
         <v>585</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E470" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E471" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E472" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>585</v>
@@ -10275,10 +10278,10 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>585</v>
@@ -10292,36 +10295,36 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E475" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E475" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E476" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -10329,38 +10332,38 @@
         <v>520</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>275</v>
@@ -10369,86 +10372,86 @@
         <v>584</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E480" s="1">
-        <v>31</v>
+        <v>199</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="2" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E481" s="1">
-        <v>32</v>
+        <v>196</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E482" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E482" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E483" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E483" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>584</v>
@@ -10456,16 +10459,16 @@
       <c r="D484" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E484" s="5" t="s">
+      <c r="E484" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>584</v>
@@ -10473,118 +10476,118 @@
       <c r="D485" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E485" s="5" t="s">
+      <c r="E485" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D486" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E486" s="1" t="s">
-        <v>200</v>
+      <c r="D486" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D487" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E487" s="1" t="s">
-        <v>201</v>
+      <c r="D487" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D488" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E488" s="5" t="s">
+      <c r="D488" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E488" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D489" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E489" s="5" t="s">
+      <c r="D489" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E489" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E490" s="1">
-        <v>31</v>
+      <c r="E490" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D491" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E491" s="1">
-        <v>32</v>
+      <c r="E491" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>585</v>
@@ -10592,16 +10595,16 @@
       <c r="D492" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E492" s="5">
+      <c r="E492" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>585</v>
@@ -10609,76 +10612,76 @@
       <c r="D493" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E493" s="5">
+      <c r="E493" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E494" s="5" t="s">
-        <v>200</v>
+      <c r="E494" s="5">
+        <v>31</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D495" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E495" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B496" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C495" s="4" t="s">
+      <c r="C496" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D495" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E495" s="5" t="s">
+      <c r="D496" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D497" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E497" s="5" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A496" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D496" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E496" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A497" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D497" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E497" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="14.5" customHeight="1">
@@ -10692,10 +10695,10 @@
         <v>585</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E498" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="14.5" customHeight="1">
@@ -10709,52 +10712,52 @@
         <v>585</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E499" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="14.5" customHeight="1">
       <c r="A500" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E500" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="14.5" customHeight="1">
       <c r="A501" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E501" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="14.5" customHeight="1">
       <c r="A502" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="C502" s="4" t="s">
         <v>585</v>
@@ -10768,10 +10771,10 @@
     </row>
     <row r="503" spans="1:5" ht="14.5" customHeight="1">
       <c r="A503" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="C503" s="4" t="s">
         <v>585</v>
@@ -10785,10 +10788,10 @@
     </row>
     <row r="504" spans="1:5" ht="14.5" customHeight="1">
       <c r="A504" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>585</v>
@@ -10802,10 +10805,10 @@
     </row>
     <row r="505" spans="1:5" ht="14.5" customHeight="1">
       <c r="A505" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>585</v>
@@ -10819,16 +10822,16 @@
     </row>
     <row r="506" spans="1:5" ht="14.5" customHeight="1">
       <c r="A506" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E506" s="1">
         <v>31</v>
@@ -10836,50 +10839,50 @@
     </row>
     <row r="507" spans="1:5" ht="14.5" customHeight="1">
       <c r="A507" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E507" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" ht="14.5" customHeight="1">
       <c r="A508" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="C508" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E508" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" ht="14.5" customHeight="1">
       <c r="A509" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E509" s="1">
         <v>32</v>
@@ -10896,52 +10899,52 @@
         <v>585</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E510" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E511" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E512" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>585</v>
@@ -10955,10 +10958,10 @@
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>585</v>
@@ -10981,52 +10984,52 @@
         <v>585</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E515" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E516" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="E516" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E517" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="E517" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>584</v>
@@ -11040,10 +11043,10 @@
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>584</v>
@@ -11057,10 +11060,10 @@
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>584</v>
@@ -11074,10 +11077,10 @@
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C521" s="4" t="s">
         <v>584</v>
@@ -11091,10 +11094,10 @@
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C522" s="4" t="s">
         <v>584</v>
@@ -11108,10 +11111,10 @@
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>584</v>
@@ -11125,10 +11128,10 @@
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>584</v>
@@ -11142,10 +11145,10 @@
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>584</v>
@@ -11159,10 +11162,10 @@
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C526" s="4" t="s">
         <v>584</v>
@@ -11176,10 +11179,10 @@
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>584</v>
@@ -11193,10 +11196,10 @@
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C528" s="4" t="s">
         <v>584</v>
@@ -11210,10 +11213,10 @@
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>584</v>
@@ -11227,10 +11230,10 @@
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C530" s="4" t="s">
         <v>584</v>
@@ -11242,29 +11245,29 @@
         <v>200</v>
       </c>
     </row>
-    <row r="531" spans="1:5" s="4" customFormat="1">
+    <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C531" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D531" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E531" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" s="4" customFormat="1">
-      <c r="A532" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C532" s="4" t="s">
         <v>584</v>
@@ -11278,10 +11281,10 @@
     </row>
     <row r="533" spans="1:5" s="4" customFormat="1">
       <c r="A533" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C533" s="4" t="s">
         <v>584</v>
@@ -11290,15 +11293,15 @@
         <v>199</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="534" spans="1:5" s="4" customFormat="1">
       <c r="A534" s="2" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C534" s="4" t="s">
         <v>584</v>
@@ -11312,10 +11315,10 @@
     </row>
     <row r="535" spans="1:5" s="4" customFormat="1">
       <c r="A535" s="2" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>584</v>
@@ -11329,146 +11332,146 @@
     </row>
     <row r="536" spans="1:5" s="4" customFormat="1">
       <c r="A536" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E536" s="1">
-        <v>31</v>
+      <c r="E536" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="537" spans="1:5" s="4" customFormat="1">
       <c r="A537" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E537" s="1">
-        <v>32</v>
+      <c r="E537" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="538" spans="1:5" s="4" customFormat="1">
       <c r="A538" s="2" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E538" s="1" t="s">
-        <v>200</v>
+      <c r="E538" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="539" spans="1:5" s="4" customFormat="1">
       <c r="A539" s="2" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E539" s="1" t="s">
-        <v>201</v>
+      <c r="E539" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="540" spans="1:5" s="4" customFormat="1">
       <c r="A540" s="2" t="s">
-        <v>431</v>
+        <v>538</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="541" spans="1:5" s="4" customFormat="1">
       <c r="A541" s="2" t="s">
-        <v>431</v>
+        <v>538</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C541" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="542" spans="1:5" s="4" customFormat="1">
       <c r="A542" s="2" t="s">
-        <v>539</v>
+        <v>431</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C542" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="543" spans="1:5" s="4" customFormat="1">
       <c r="A543" s="2" t="s">
-        <v>539</v>
+        <v>431</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C543" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="544" spans="1:5" s="4" customFormat="1">
       <c r="A544" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C544" s="4" t="s">
         <v>584</v>
@@ -11482,10 +11485,10 @@
     </row>
     <row r="545" spans="1:5" s="4" customFormat="1">
       <c r="A545" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C545" s="4" t="s">
         <v>584</v>
@@ -11499,44 +11502,44 @@
     </row>
     <row r="546" spans="1:5" s="4" customFormat="1">
       <c r="A546" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D546" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E546" s="1">
-        <v>31</v>
+      <c r="E546" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="547" spans="1:5" s="4" customFormat="1">
       <c r="A547" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D547" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E547" s="1">
-        <v>32</v>
+      <c r="E547" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="548" spans="1:5" s="4" customFormat="1">
       <c r="A548" s="2" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C548" s="4" t="s">
         <v>585</v>
@@ -11550,10 +11553,10 @@
     </row>
     <row r="549" spans="1:5" s="4" customFormat="1">
       <c r="A549" s="2" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C549" s="4" t="s">
         <v>585</v>
@@ -11567,10 +11570,10 @@
     </row>
     <row r="550" spans="1:5" s="4" customFormat="1">
       <c r="A550" s="2" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C550" s="4" t="s">
         <v>585</v>
@@ -11584,10 +11587,10 @@
     </row>
     <row r="551" spans="1:5" s="4" customFormat="1">
       <c r="A551" s="2" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>585</v>
@@ -11601,78 +11604,78 @@
     </row>
     <row r="552" spans="1:5" s="4" customFormat="1">
       <c r="A552" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E552" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E552" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="553" spans="1:5" s="4" customFormat="1">
       <c r="A553" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E553" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E553" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="554" spans="1:5" s="4" customFormat="1">
       <c r="A554" s="2" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E554" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="555" spans="1:5" s="4" customFormat="1">
       <c r="A555" s="2" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E555" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="556" spans="1:5" s="4" customFormat="1">
       <c r="A556" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>585</v>
@@ -11686,10 +11689,10 @@
     </row>
     <row r="557" spans="1:5" s="4" customFormat="1">
       <c r="A557" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>585</v>
@@ -11703,180 +11706,180 @@
     </row>
     <row r="558" spans="1:5" s="4" customFormat="1">
       <c r="A558" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E558" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E558" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="559" spans="1:5" s="4" customFormat="1">
       <c r="A559" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E559" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E559" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="560" spans="1:5" s="4" customFormat="1">
       <c r="A560" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E560" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="561" spans="1:5" s="4" customFormat="1">
       <c r="A561" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E561" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="562" spans="1:5" s="4" customFormat="1">
       <c r="A562" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E562" s="4" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E562" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="563" spans="1:5" s="4" customFormat="1">
       <c r="A563" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E563" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E563" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="564" spans="1:5" s="4" customFormat="1">
       <c r="A564" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C564" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E564" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="E564" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="565" spans="1:5" s="4" customFormat="1">
       <c r="A565" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="566" spans="1:5" s="4" customFormat="1">
       <c r="A566" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D566" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E566" s="1">
-        <v>31</v>
+      <c r="E566" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="567" spans="1:5" s="4" customFormat="1">
       <c r="A567" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D567" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E567" s="1">
-        <v>32</v>
+      <c r="E567" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="568" spans="1:5" s="4" customFormat="1">
       <c r="A568" s="2" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C568" s="4" t="s">
         <v>585</v>
@@ -11890,10 +11893,10 @@
     </row>
     <row r="569" spans="1:5" s="4" customFormat="1">
       <c r="A569" s="2" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>585</v>
@@ -11907,78 +11910,78 @@
     </row>
     <row r="570" spans="1:5" s="4" customFormat="1">
       <c r="A570" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E570" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E570" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="571" spans="1:5" s="4" customFormat="1">
       <c r="A571" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E571" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E571" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="572" spans="1:5" s="4" customFormat="1">
       <c r="A572" s="2" t="s">
-        <v>549</v>
+        <v>478</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E572" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="573" spans="1:5" s="4" customFormat="1">
       <c r="A573" s="2" t="s">
-        <v>549</v>
+        <v>478</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E573" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="574" spans="1:5" s="4" customFormat="1">
       <c r="A574" s="2" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C574" s="4" t="s">
         <v>585</v>
@@ -11992,10 +11995,10 @@
     </row>
     <row r="575" spans="1:5" s="4" customFormat="1">
       <c r="A575" s="2" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C575" s="4" t="s">
         <v>585</v>
@@ -12009,146 +12012,146 @@
     </row>
     <row r="576" spans="1:5" s="4" customFormat="1">
       <c r="A576" s="2" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D576" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E576" s="1" t="s">
-        <v>200</v>
+      <c r="E576" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="577" spans="1:5" s="4" customFormat="1">
       <c r="A577" s="2" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D577" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E577" s="1" t="s">
-        <v>201</v>
+      <c r="E577" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="578" spans="1:5" s="4" customFormat="1">
       <c r="A578" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D578" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E578" s="1">
-        <v>31</v>
+      <c r="E578" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="579" spans="1:5" s="4" customFormat="1">
       <c r="A579" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D579" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E579" s="1">
-        <v>32</v>
+      <c r="E579" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="580" spans="1:5" s="4" customFormat="1">
       <c r="A580" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E580" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E580" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="581" spans="1:5" s="4" customFormat="1">
       <c r="A581" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E581" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E581" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="582" spans="1:5" s="4" customFormat="1">
       <c r="A582" s="2" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E582" s="1">
-        <v>31</v>
+        <v>196</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="583" spans="1:5" s="4" customFormat="1">
       <c r="A583" s="2" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E583" s="1">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="584" spans="1:5" s="4" customFormat="1">
       <c r="A584" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>585</v>
@@ -12162,10 +12165,10 @@
     </row>
     <row r="585" spans="1:5" s="4" customFormat="1">
       <c r="A585" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C585" s="4" t="s">
         <v>585</v>
@@ -12179,44 +12182,44 @@
     </row>
     <row r="586" spans="1:5" s="4" customFormat="1">
       <c r="A586" s="2" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D586" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E586" s="1" t="s">
-        <v>200</v>
+      <c r="E586" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="587" spans="1:5" s="4" customFormat="1">
       <c r="A587" s="2" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D587" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E587" s="1" t="s">
-        <v>201</v>
+      <c r="E587" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="588" spans="1:5" s="4" customFormat="1">
       <c r="A588" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C588" s="4" t="s">
         <v>584</v>
@@ -12230,10 +12233,10 @@
     </row>
     <row r="589" spans="1:5" s="4" customFormat="1">
       <c r="A589" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C589" s="4" t="s">
         <v>584</v>
@@ -12247,10 +12250,10 @@
     </row>
     <row r="590" spans="1:5" s="4" customFormat="1">
       <c r="A590" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C590" s="4" t="s">
         <v>584</v>
@@ -12264,10 +12267,10 @@
     </row>
     <row r="591" spans="1:5" s="4" customFormat="1">
       <c r="A591" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C591" s="4" t="s">
         <v>584</v>
@@ -12281,10 +12284,10 @@
     </row>
     <row r="592" spans="1:5" s="4" customFormat="1">
       <c r="A592" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C592" s="4" t="s">
         <v>584</v>
@@ -12298,10 +12301,10 @@
     </row>
     <row r="593" spans="1:5" s="4" customFormat="1">
       <c r="A593" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C593" s="4" t="s">
         <v>584</v>
@@ -12315,10 +12318,10 @@
     </row>
     <row r="594" spans="1:5" s="4" customFormat="1">
       <c r="A594" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C594" s="4" t="s">
         <v>584</v>
@@ -12332,10 +12335,10 @@
     </row>
     <row r="595" spans="1:5" s="4" customFormat="1">
       <c r="A595" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C595" s="4" t="s">
         <v>584</v>
@@ -12349,10 +12352,10 @@
     </row>
     <row r="596" spans="1:5" s="4" customFormat="1">
       <c r="A596" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C596" s="4" t="s">
         <v>584</v>
@@ -12366,10 +12369,10 @@
     </row>
     <row r="597" spans="1:5" s="4" customFormat="1">
       <c r="A597" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C597" s="4" t="s">
         <v>584</v>
@@ -12383,10 +12386,10 @@
     </row>
     <row r="598" spans="1:5" s="4" customFormat="1">
       <c r="A598" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C598" s="4" t="s">
         <v>584</v>
@@ -12400,10 +12403,10 @@
     </row>
     <row r="599" spans="1:5" s="4" customFormat="1">
       <c r="A599" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C599" s="4" t="s">
         <v>584</v>
@@ -12417,10 +12420,10 @@
     </row>
     <row r="600" spans="1:5" s="4" customFormat="1">
       <c r="A600" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C600" s="4" t="s">
         <v>584</v>
@@ -12434,10 +12437,10 @@
     </row>
     <row r="601" spans="1:5" s="4" customFormat="1">
       <c r="A601" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C601" s="4" t="s">
         <v>584</v>
@@ -12451,10 +12454,10 @@
     </row>
     <row r="602" spans="1:5" s="4" customFormat="1">
       <c r="A602" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>584</v>
@@ -12468,10 +12471,10 @@
     </row>
     <row r="603" spans="1:5" s="4" customFormat="1">
       <c r="A603" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C603" s="4" t="s">
         <v>584</v>
@@ -12485,10 +12488,10 @@
     </row>
     <row r="604" spans="1:5" s="4" customFormat="1">
       <c r="A604" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C604" s="4" t="s">
         <v>584</v>
@@ -12502,10 +12505,10 @@
     </row>
     <row r="605" spans="1:5" s="4" customFormat="1">
       <c r="A605" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C605" s="4" t="s">
         <v>584</v>
@@ -12519,10 +12522,10 @@
     </row>
     <row r="606" spans="1:5" s="4" customFormat="1">
       <c r="A606" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C606" s="4" t="s">
         <v>584</v>
@@ -12536,10 +12539,10 @@
     </row>
     <row r="607" spans="1:5" s="4" customFormat="1">
       <c r="A607" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C607" s="4" t="s">
         <v>584</v>
@@ -12553,10 +12556,10 @@
     </row>
     <row r="608" spans="1:5" s="4" customFormat="1">
       <c r="A608" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C608" s="4" t="s">
         <v>584</v>
@@ -12570,10 +12573,10 @@
     </row>
     <row r="609" spans="1:5" s="4" customFormat="1">
       <c r="A609" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C609" s="4" t="s">
         <v>584</v>
@@ -12587,10 +12590,10 @@
     </row>
     <row r="610" spans="1:5" s="4" customFormat="1">
       <c r="A610" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C610" s="4" t="s">
         <v>584</v>
@@ -12604,10 +12607,10 @@
     </row>
     <row r="611" spans="1:5" s="4" customFormat="1">
       <c r="A611" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C611" s="4" t="s">
         <v>584</v>
@@ -12621,10 +12624,10 @@
     </row>
     <row r="612" spans="1:5" s="4" customFormat="1">
       <c r="A612" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C612" s="4" t="s">
         <v>584</v>
@@ -12638,10 +12641,10 @@
     </row>
     <row r="613" spans="1:5" s="4" customFormat="1">
       <c r="A613" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>584</v>
@@ -12655,10 +12658,10 @@
     </row>
     <row r="614" spans="1:5" s="4" customFormat="1">
       <c r="A614" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C614" s="4" t="s">
         <v>584</v>
@@ -12672,10 +12675,10 @@
     </row>
     <row r="615" spans="1:5" s="4" customFormat="1">
       <c r="A615" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C615" s="4" t="s">
         <v>584</v>
@@ -12689,10 +12692,10 @@
     </row>
     <row r="616" spans="1:5" s="4" customFormat="1">
       <c r="A616" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>584</v>
@@ -12706,10 +12709,10 @@
     </row>
     <row r="617" spans="1:5" s="4" customFormat="1">
       <c r="A617" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C617" s="4" t="s">
         <v>584</v>
@@ -12723,78 +12726,78 @@
     </row>
     <row r="618" spans="1:5" s="4" customFormat="1">
       <c r="A618" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E618" s="1">
-        <v>33</v>
+        <v>198</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="619" spans="1:5" s="4" customFormat="1">
       <c r="A619" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E619" s="1">
-        <v>34</v>
+        <v>199</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="620" spans="1:5" s="4" customFormat="1">
       <c r="A620" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E620" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="E620" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="621" spans="1:5" s="4" customFormat="1">
       <c r="A621" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E621" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="E621" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="622" spans="1:5" s="4" customFormat="1">
       <c r="A622" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C622" s="4" t="s">
         <v>584</v>
@@ -12808,10 +12811,10 @@
     </row>
     <row r="623" spans="1:5" s="4" customFormat="1">
       <c r="A623" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C623" s="4" t="s">
         <v>584</v>
@@ -12825,10 +12828,10 @@
     </row>
     <row r="624" spans="1:5" s="4" customFormat="1">
       <c r="A624" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C624" s="4" t="s">
         <v>584</v>
@@ -12842,10 +12845,10 @@
     </row>
     <row r="625" spans="1:5" s="4" customFormat="1">
       <c r="A625" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C625" s="4" t="s">
         <v>584</v>
@@ -12859,10 +12862,10 @@
     </row>
     <row r="626" spans="1:5" s="4" customFormat="1">
       <c r="A626" s="2" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C626" s="4" t="s">
         <v>584</v>
@@ -12876,10 +12879,10 @@
     </row>
     <row r="627" spans="1:5" s="4" customFormat="1">
       <c r="A627" s="2" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C627" s="4" t="s">
         <v>584</v>
@@ -12893,10 +12896,10 @@
     </row>
     <row r="628" spans="1:5" s="4" customFormat="1">
       <c r="A628" s="2" t="s">
-        <v>573</v>
+        <v>511</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C628" s="4" t="s">
         <v>584</v>
@@ -12910,10 +12913,10 @@
     </row>
     <row r="629" spans="1:5" s="4" customFormat="1">
       <c r="A629" s="2" t="s">
-        <v>573</v>
+        <v>511</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C629" s="4" t="s">
         <v>584</v>
@@ -12936,10 +12939,10 @@
         <v>584</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
     </row>
     <row r="631" spans="1:5" s="4" customFormat="1">
@@ -12953,52 +12956,52 @@
         <v>584</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="632" spans="1:5" s="4" customFormat="1">
       <c r="A632" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C632" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="633" spans="1:5" s="4" customFormat="1">
       <c r="A633" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="634" spans="1:5" s="4" customFormat="1">
       <c r="A634" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C634" s="4" t="s">
         <v>584</v>
@@ -13012,10 +13015,10 @@
     </row>
     <row r="635" spans="1:5" s="4" customFormat="1">
       <c r="A635" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C635" s="4" t="s">
         <v>584</v>
@@ -13029,10 +13032,10 @@
     </row>
     <row r="636" spans="1:5" s="4" customFormat="1">
       <c r="A636" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C636" s="4" t="s">
         <v>584</v>
@@ -13046,10 +13049,10 @@
     </row>
     <row r="637" spans="1:5" s="4" customFormat="1">
       <c r="A637" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C637" s="4" t="s">
         <v>584</v>
@@ -13063,10 +13066,10 @@
     </row>
     <row r="638" spans="1:5" s="4" customFormat="1">
       <c r="A638" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C638" s="4" t="s">
         <v>584</v>
@@ -13080,10 +13083,10 @@
     </row>
     <row r="639" spans="1:5" s="4" customFormat="1">
       <c r="A639" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C639" s="4" t="s">
         <v>584</v>
@@ -13097,10 +13100,10 @@
     </row>
     <row r="640" spans="1:5" s="4" customFormat="1">
       <c r="A640" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C640" s="4" t="s">
         <v>584</v>
@@ -13112,12 +13115,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" s="4" customFormat="1">
       <c r="A641" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C641" s="4" t="s">
         <v>584</v>
@@ -13129,12 +13132,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" s="4" customFormat="1">
       <c r="A642" s="2" t="s">
-        <v>423</v>
+        <v>578</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C642" s="4" t="s">
         <v>584</v>
@@ -13148,10 +13151,10 @@
     </row>
     <row r="643" spans="1:5">
       <c r="A643" s="2" t="s">
-        <v>423</v>
+        <v>578</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>584</v>
@@ -13165,112 +13168,112 @@
     </row>
     <row r="644" spans="1:5">
       <c r="A644" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D644" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E644" s="1">
-        <v>31</v>
+      <c r="E644" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="645" spans="1:5">
       <c r="A645" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D645" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E645" s="1">
-        <v>32</v>
+      <c r="E645" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="646" spans="1:5">
       <c r="A646" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E646" s="1" t="s">
-        <v>64</v>
+        <v>198</v>
+      </c>
+      <c r="E646" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="647" spans="1:5">
       <c r="A647" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E647" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="E647" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="648" spans="1:5">
       <c r="A648" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="C648" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
     </row>
     <row r="649" spans="1:5">
       <c r="A649" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="C649" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="C650" s="4" t="s">
         <v>584</v>
@@ -13284,10 +13287,10 @@
     </row>
     <row r="651" spans="1:5">
       <c r="A651" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="C651" s="4" t="s">
         <v>584</v>
@@ -13301,10 +13304,10 @@
     </row>
     <row r="652" spans="1:5">
       <c r="A652" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="C652" s="4" t="s">
         <v>584</v>
@@ -13318,18 +13321,52 @@
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C653" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B653" s="1" t="s">
+      <c r="B654" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C653" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D653" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E653" s="1" t="s">
+      <c r="C654" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C655" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E655" s="1" t="s">
         <v>201</v>
       </c>
     </row>
